--- a/test/test_2.xlsx
+++ b/test/test_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QQ831KU\spend_analytics_tracker\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A416A25-0F2A-44D3-B72E-AF9CD151FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78438544-1F00-462F-B797-8F08DE9B614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>EY</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Identification</t>
+  </si>
+  <si>
+    <t>Misc 1</t>
+  </si>
+  <si>
+    <t>Misc 2</t>
+  </si>
+  <si>
+    <t>Misc 3</t>
+  </si>
+  <si>
+    <t>Misc 4</t>
+  </si>
+  <si>
+    <t>Misc 5</t>
   </si>
 </sst>
 </file>
@@ -399,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,7 +429,7 @@
     <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -430,8 +445,23 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -465,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -482,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
